--- a/LOI/COI/COI-all.xlsx
+++ b/LOI/COI/COI-all.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22700" yWindow="3340" windowWidth="31580" windowHeight="23740"/>
+    <workbookView xWindow="6120" yWindow="0" windowWidth="25600" windowHeight="27040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="382">
   <si>
     <t xml:space="preserve"> UCSD</t>
   </si>
@@ -1078,13 +1078,103 @@
   </si>
   <si>
     <t>U. Wisconsin-Madison</t>
+  </si>
+  <si>
+    <t>Arpaci-Dusseau</t>
+  </si>
+  <si>
+    <t>UW Madison</t>
+  </si>
+  <si>
+    <t>Baretto</t>
+  </si>
+  <si>
+    <t>U Chicago</t>
+  </si>
+  <si>
+    <t>Bent</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>Cappello</t>
+  </si>
+  <si>
+    <t>Dayal</t>
+  </si>
+  <si>
+    <t>Gavrilovska</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>CMU &amp; Panasas</t>
+  </si>
+  <si>
+    <t>Jean-Baptiste</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>UCSC</t>
+  </si>
+  <si>
+    <t>Kordenbrock</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>QCRI</t>
+  </si>
+  <si>
+    <t>Maltzahn</t>
+  </si>
+  <si>
+    <t>Mohror</t>
+  </si>
+  <si>
+    <t>Moody</t>
+  </si>
+  <si>
+    <t>Sjaardema</t>
+  </si>
+  <si>
+    <t>Thapaliya</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>McClelland</t>
+  </si>
+  <si>
+    <t>Xyratex</t>
+  </si>
+  <si>
+    <t>Yu.</t>
+  </si>
+  <si>
+    <t>Zheng</t>
+  </si>
+  <si>
+    <t>IBM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,6 +1219,22 @@
       <color theme="1"/>
       <name val="NimbusRomNo9L-Regu"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1147,8 +1253,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1169,7 +1277,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1472,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K286"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1555,153 +1665,153 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>322</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1709,1367 +1819,1341 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>327</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15">
-      <c r="A44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B52" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15">
-      <c r="A46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B50" t="s">
-        <v>323</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15">
       <c r="A60" s="1" t="s">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>110</v>
+      </c>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15">
+      <c r="A70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
+    <row r="72" spans="1:10" ht="15">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B88" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B89" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B90" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B91" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B93" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15">
-      <c r="A73" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15">
-      <c r="A74" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15">
-      <c r="A75" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15">
-      <c r="A76" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15">
-      <c r="A77" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15">
-      <c r="A78" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15">
-      <c r="A80" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15">
-      <c r="A81" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15">
-      <c r="A82" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15">
-      <c r="A83" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15">
-      <c r="A84" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15">
-      <c r="A85" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15">
-      <c r="A86" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15">
-      <c r="A87" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15">
-      <c r="A88" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15">
-      <c r="A89" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15">
-      <c r="A90" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15">
-      <c r="A91" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15">
-      <c r="A92" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15">
-      <c r="A93" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15">
       <c r="A94" s="3" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15">
+      <c r="A97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15">
-      <c r="A97" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C97" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15">
       <c r="A98" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15">
       <c r="A99" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15">
+      <c r="A100" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15">
-      <c r="A100" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C100" s="3" t="s">
+    <row r="101" spans="1:3" ht="15">
+      <c r="A101" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15">
+      <c r="A102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15">
+      <c r="A103" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15">
+      <c r="A104" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15">
-      <c r="A101" s="3" t="s">
+    <row r="105" spans="1:3" ht="15">
+      <c r="A105" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
+      <c r="A107" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9" ht="15">
-      <c r="A102" s="3" t="s">
+    </row>
+    <row r="108" spans="1:3" ht="15">
+      <c r="A108" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15">
-      <c r="A103" s="3" t="s">
+    <row r="109" spans="1:3" ht="15">
+      <c r="A109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15">
-      <c r="A104" s="3" t="s">
+    <row r="110" spans="1:3" ht="15">
+      <c r="A110" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15">
+      <c r="A111" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
-      <c r="A105" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15">
-      <c r="A106" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15">
-      <c r="A107" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15">
-      <c r="A108" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15">
-      <c r="A109" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15">
-      <c r="A110" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15">
-      <c r="A111" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:3" ht="15">
       <c r="A112" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15">
       <c r="A113" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H113" s="3"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="15">
       <c r="A114" s="3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H114" s="3"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="15">
       <c r="A115" s="3" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15">
       <c r="A116" s="3" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H116" s="3"/>
+        <v>136</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="15">
       <c r="A117" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15">
       <c r="A118" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H118" s="3"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="119" spans="1:9" ht="15">
       <c r="A119" s="3" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H119" s="3"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="120" spans="1:9" ht="15">
       <c r="A120" s="3" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H120" s="3"/>
+        <v>136</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="15">
       <c r="A121" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="15">
       <c r="A122" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H122" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" ht="15">
       <c r="A123" s="3" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H123" s="3"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="15">
       <c r="A124" s="3" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="15">
       <c r="A125" s="3" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H125" s="3"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="15">
       <c r="A126" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H126" s="3"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="15">
       <c r="A127" s="3" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H127" s="3"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" s="3" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H128" s="3"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="3" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H129" s="3"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="3" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H131" s="3"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
+        <v>163</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="3" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H133" s="3"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="H134" s="3"/>
     </row>
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:9" ht="15">
       <c r="A136" s="3" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H136" s="3"/>
+        <v>172</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H138" s="3"/>
+        <v>163</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="15">
       <c r="A139" s="3" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
     </row>
     <row r="140" spans="1:9" ht="15">
       <c r="A140" s="3" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:9" ht="15">
       <c r="A141" s="3" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>99</v>
@@ -3078,1647 +3162,1904 @@
     </row>
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="3" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H142" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="3" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="3" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
     </row>
     <row r="146" spans="1:9" ht="15">
       <c r="A146" s="3" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" ht="15">
       <c r="A147" s="3" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="H147" s="3"/>
     </row>
     <row r="148" spans="1:9" ht="15">
       <c r="A148" s="3" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="H148" s="3"/>
     </row>
     <row r="149" spans="1:9" ht="15">
       <c r="A149" s="3" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="H149" s="3"/>
     </row>
     <row r="150" spans="1:9" ht="15">
       <c r="A150" s="3" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H150" s="3"/>
     </row>
     <row r="151" spans="1:9" ht="15">
       <c r="A151" s="3" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9" ht="15">
-      <c r="A152" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>215</v>
+      <c r="A152" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:9" ht="15">
       <c r="A153" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9" ht="15">
       <c r="A154" s="3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="H154" s="3"/>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" s="3" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="1:9" ht="15">
       <c r="A156" s="3" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="H156" s="3"/>
     </row>
     <row r="157" spans="1:9" ht="15">
       <c r="A157" s="3" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="3" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="H158" s="3"/>
     </row>
     <row r="159" spans="1:9" ht="15">
       <c r="A159" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="H159" s="3"/>
     </row>
     <row r="160" spans="1:9" ht="15">
       <c r="A160" s="3" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
     </row>
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9" ht="15">
       <c r="A163" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:9" ht="15">
       <c r="A164" s="3" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9" ht="15">
       <c r="A165" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
     <row r="166" spans="1:9" ht="15">
       <c r="A166" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>227</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="H166" s="3"/>
     </row>
     <row r="167" spans="1:9" ht="15">
       <c r="A167" s="3" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>227</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
     </row>
     <row r="168" spans="1:9" ht="15">
       <c r="A168" s="3" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H168" s="3"/>
     </row>
     <row r="169" spans="1:9" ht="15">
       <c r="A169" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="H169" s="3"/>
     </row>
     <row r="170" spans="1:9" ht="15">
       <c r="A170" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H170" s="3"/>
     </row>
     <row r="171" spans="1:9" ht="15">
       <c r="A171" s="3" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="H171" s="3"/>
     </row>
     <row r="172" spans="1:9" ht="15">
       <c r="A172" s="3" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="H172" s="3"/>
     </row>
     <row r="173" spans="1:9" ht="15">
-      <c r="A173" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A173" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H173" s="3"/>
     </row>
     <row r="174" spans="1:9" ht="15">
       <c r="A174" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:9" ht="15">
       <c r="A175" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:9" ht="15">
+      <c r="A176" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:9" ht="15">
+      <c r="A177" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="1:9" ht="15">
+      <c r="A178" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:9" ht="15">
+      <c r="A179" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="1:9" ht="15">
+      <c r="A180" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:9" ht="15">
+      <c r="A181" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:9" ht="15">
+      <c r="A182" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="1:9" ht="15">
+      <c r="A183" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="1:9" ht="15">
+      <c r="A184" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="1:9" ht="15">
+      <c r="A185" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="1:9" ht="15">
+      <c r="A186" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:9" ht="15">
+      <c r="A187" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15">
+      <c r="A188" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15">
+      <c r="A189" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15">
+      <c r="A190" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15">
+      <c r="A191" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15">
+      <c r="A192" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15">
+      <c r="A193" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15">
+      <c r="A194" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15">
+      <c r="A195" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15">
+      <c r="A196" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="5" t="s">
+    <row r="197" spans="1:8">
+      <c r="A197" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B197" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C197" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="5" t="s">
+    <row r="198" spans="1:8">
+      <c r="A198" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B198" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C198" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="5" t="s">
+    <row r="199" spans="1:8">
+      <c r="A199" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B199" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C199" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="5" t="s">
+    <row r="200" spans="1:8">
+      <c r="A200" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B200" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C200" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="5" t="s">
+    <row r="201" spans="1:8">
+      <c r="A201" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B201" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C201" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="5" t="s">
+    <row r="202" spans="1:8">
+      <c r="A202" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B202" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C202" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H181" s="5"/>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="5" t="s">
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B203" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:8">
       <c r="A204" s="5" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="B204" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B205" s="5" t="s">
+      <c r="C206" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C207" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="5" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5" t="s">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>258</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="5" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>274</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="5" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="5" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="5" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>276</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="5" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="5" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>96</v>
+        <v>263</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="5" t="s">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="5" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>278</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="5" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="5" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="5" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H225" s="5"/>
-    </row>
-    <row r="226" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="5" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B227" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C228" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="5" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="5" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C231" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C249" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="5" t="s">
+    <row r="250" spans="1:8">
+      <c r="A250" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B253" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="C253" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="5" t="s">
+    <row r="254" spans="1:8">
+      <c r="A254" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B254" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C254" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="5" t="s">
+    <row r="255" spans="1:8">
+      <c r="A255" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B255" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C255" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="5" t="s">
+    <row r="256" spans="1:8">
+      <c r="A256" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B256" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C256" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="5" t="s">
+    <row r="257" spans="1:9">
+      <c r="A257" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B257" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C257" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="5" t="s">
+    <row r="258" spans="1:9">
+      <c r="A258" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B258" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C258" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="5" t="s">
+    <row r="259" spans="1:9">
+      <c r="A259" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B259" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="C259" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="5" t="s">
+    <row r="260" spans="1:9">
+      <c r="A260" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B260" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="C260" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="5" t="s">
+    <row r="261" spans="1:9">
+      <c r="A261" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B261" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C261" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="5" t="s">
+    <row r="262" spans="1:9">
+      <c r="A262" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B262" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C241" s="5" t="s">
+      <c r="C262" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="15">
-      <c r="A242" s="6" t="s">
+    <row r="263" spans="1:9" ht="15">
+      <c r="A263" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B263" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C263" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15">
-      <c r="A243" s="6" t="s">
+    <row r="264" spans="1:9" ht="15">
+      <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B264" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C264" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G243" s="6"/>
-    </row>
-    <row r="244" spans="1:9" ht="15">
-      <c r="A244" s="6" t="s">
+      <c r="G264" s="6"/>
+    </row>
+    <row r="265" spans="1:9" ht="15">
+      <c r="A265" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B265" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C265" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="15">
-      <c r="A245" s="6" t="s">
+    <row r="266" spans="1:9" ht="15">
+      <c r="A266" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B266" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C266" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="15">
-      <c r="A246" s="6" t="s">
+    <row r="267" spans="1:9" ht="15">
+      <c r="A267" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B267" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C246" s="6" t="s">
+      <c r="C267" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="G246" s="6"/>
-      <c r="H246" s="6"/>
-      <c r="I246" s="6"/>
-    </row>
-    <row r="247" spans="1:9" ht="15">
-      <c r="A247" s="6" t="s">
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="6"/>
+    </row>
+    <row r="268" spans="1:9" ht="15">
+      <c r="A268" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B268" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C247" s="6" t="s">
+      <c r="C268" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="15">
-      <c r="A248" s="6" t="s">
+    <row r="269" spans="1:9" ht="15">
+      <c r="A269" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B269" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C269" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="15">
-      <c r="A249" s="6" t="s">
+    <row r="270" spans="1:9" ht="15">
+      <c r="A270" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B270" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C249" s="6" t="s">
+      <c r="C270" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="15">
-      <c r="A250" s="6" t="s">
+    <row r="271" spans="1:9" ht="15">
+      <c r="A271" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B271" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C250" s="6" t="s">
+      <c r="C271" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="15">
-      <c r="A251" s="6" t="s">
+    <row r="272" spans="1:9" ht="15">
+      <c r="A272" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B272" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C251" s="6" t="s">
+      <c r="C272" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G251" s="6"/>
-      <c r="H251" s="6"/>
-    </row>
-    <row r="252" spans="1:9" ht="15">
-      <c r="A252" s="6" t="s">
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273" spans="1:10" ht="15">
+      <c r="A273" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B273" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C273" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G252" s="6"/>
-    </row>
-    <row r="253" spans="1:9" ht="15">
-      <c r="A253" s="6" t="s">
+      <c r="G273" s="6"/>
+    </row>
+    <row r="274" spans="1:10" ht="15">
+      <c r="A274" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B274" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C253" s="6" t="s">
+      <c r="C274" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G253" s="6"/>
-    </row>
-    <row r="254" spans="1:9" ht="15">
-      <c r="A254" s="6" t="s">
+      <c r="G274" s="6"/>
+    </row>
+    <row r="275" spans="1:10" ht="15">
+      <c r="A275" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B275" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C254" s="6" t="s">
+      <c r="C275" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G254" s="6"/>
-      <c r="H254" s="6"/>
-    </row>
-    <row r="255" spans="1:9" ht="15">
-      <c r="A255" s="6" t="s">
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="1:10" ht="15">
+      <c r="A276" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B276" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C255" s="6" t="s">
+      <c r="C276" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="15">
-      <c r="A256" s="6" t="s">
+    <row r="277" spans="1:10" ht="15">
+      <c r="A277" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B277" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="C277" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="15">
-      <c r="A257" s="6" t="s">
+    <row r="278" spans="1:10" ht="15">
+      <c r="A278" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B278" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C257" s="6" t="s">
+      <c r="C278" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G257" s="6"/>
-    </row>
-    <row r="258" spans="1:10" ht="15">
-      <c r="A258" s="6" t="s">
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" spans="1:10" ht="15">
+      <c r="A279" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B279" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C279" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
-    </row>
-    <row r="259" spans="1:10" ht="15">
-      <c r="A259" s="6" t="s">
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:10" ht="15">
+      <c r="A280" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B280" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C280" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="15">
-      <c r="A260" s="6" t="s">
+    <row r="281" spans="1:10" ht="15">
+      <c r="A281" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B281" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C260" s="6" t="s">
+      <c r="C281" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="15">
-      <c r="A261" s="6" t="s">
+    <row r="282" spans="1:10" ht="15">
+      <c r="A282" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B282" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C261" s="6" t="s">
+      <c r="C282" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G261" s="6"/>
-      <c r="H261" s="6"/>
-      <c r="I261" s="6"/>
-      <c r="J261" s="6"/>
-    </row>
-    <row r="262" spans="1:10" ht="15">
-      <c r="A262" s="6" t="s">
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+    </row>
+    <row r="283" spans="1:10" ht="15">
+      <c r="A283" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6" t="s">
+      <c r="B283" s="6"/>
+      <c r="C283" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="15">
-      <c r="A263" s="6" t="s">
+    <row r="284" spans="1:10" ht="15">
+      <c r="A284" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B284" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C284" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="15">
-      <c r="A264" s="6" t="s">
+    <row r="285" spans="1:10" ht="15">
+      <c r="A285" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B285" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C285" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15">
-      <c r="A265" s="6" t="s">
+    <row r="286" spans="1:10" ht="15">
+      <c r="A286" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B286" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C286" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="15">
-      <c r="A266" s="6" t="s">
+    <row r="287" spans="1:10" ht="15">
+      <c r="A287" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B287" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C287" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G266" s="6"/>
-    </row>
-    <row r="267" spans="1:10" ht="15">
-      <c r="A267" s="6" t="s">
+      <c r="G287" s="6"/>
+    </row>
+    <row r="288" spans="1:10" ht="15">
+      <c r="A288" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B288" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C288" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="15">
-      <c r="A268" s="6" t="s">
+    <row r="289" spans="1:7" ht="15">
+      <c r="A289" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B289" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C289" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="15">
-      <c r="A269" s="6" t="s">
+    <row r="290" spans="1:7" ht="15">
+      <c r="A290" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B290" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C290" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G269" s="6"/>
-    </row>
-    <row r="270" spans="1:10" ht="15">
-      <c r="A270" s="6" t="s">
+      <c r="G290" s="6"/>
+    </row>
+    <row r="291" spans="1:7" ht="15">
+      <c r="A291" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B291" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C270" s="6" t="s">
+      <c r="C291" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="15">
-      <c r="A271" s="6" t="s">
+    <row r="292" spans="1:7" ht="15">
+      <c r="A292" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B292" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="C292" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="15">
-      <c r="A272" s="6" t="s">
+    <row r="293" spans="1:7" ht="15">
+      <c r="A293" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B293" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C293" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15">
-      <c r="A273" s="6" t="s">
+    <row r="294" spans="1:7" ht="15">
+      <c r="A294" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B294" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="C294" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15">
-      <c r="A274" s="6" t="s">
+    <row r="295" spans="1:7" ht="15">
+      <c r="A295" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B295" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C295" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15">
-      <c r="A275" s="6" t="s">
+    <row r="296" spans="1:7" ht="15">
+      <c r="A296" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B296" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C296" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15">
-      <c r="A276" s="6" t="s">
+    <row r="297" spans="1:7" ht="15">
+      <c r="A297" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B297" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="C297" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15">
-      <c r="A277" s="6" t="s">
+    <row r="298" spans="1:7" ht="15">
+      <c r="A298" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B298" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C277" s="6" t="s">
+      <c r="C298" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15">
-      <c r="A278" s="6" t="s">
+    <row r="299" spans="1:7" ht="15">
+      <c r="A299" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B299" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C278" s="6" t="s">
+      <c r="C299" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15">
-      <c r="A279" s="6" t="s">
+    <row r="300" spans="1:7" ht="15">
+      <c r="A300" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B300" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C279" s="6" t="s">
+      <c r="C300" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15">
-      <c r="A280" s="6" t="s">
+    <row r="301" spans="1:7" ht="15">
+      <c r="A301" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B301" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C301" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15">
-      <c r="A281" s="6" t="s">
+    <row r="302" spans="1:7" ht="15">
+      <c r="A302" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B302" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C281" s="6" t="s">
+      <c r="C302" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15">
-      <c r="A282" s="6" t="s">
+    <row r="303" spans="1:7" ht="15">
+      <c r="A303" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B303" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="C303" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15">
-      <c r="A283" s="6" t="s">
+    <row r="304" spans="1:7" ht="15">
+      <c r="A304" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B304" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C283" s="6" t="s">
+      <c r="C304" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15">
-      <c r="A284" s="6" t="s">
+    <row r="305" spans="1:3" ht="15">
+      <c r="A305" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B305" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="C305" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15">
-      <c r="A285" s="6" t="s">
+    <row r="306" spans="1:3" ht="15">
+      <c r="A306" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B306" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C285" s="6" t="s">
+      <c r="C306" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15">
-      <c r="A286" s="6" t="s">
+    <row r="307" spans="1:3" ht="15">
+      <c r="A307" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B307" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C307" s="6" t="s">
         <v>351</v>
       </c>
     </row>

--- a/LOI/COI/COI-all.xlsx
+++ b/LOI/COI/COI-all.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25915"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="0" windowWidth="25600" windowHeight="27040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="421">
   <si>
     <t xml:space="preserve"> UCSD</t>
   </si>
@@ -1168,6 +1168,123 @@
   </si>
   <si>
     <t>IBM</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>U. of Alabama at Birmingham</t>
+  </si>
+  <si>
+    <t>Barrett</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Brandt</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Carns</t>
+  </si>
+  <si>
+    <t>DeBardeleben</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Ferreira</t>
+  </si>
+  <si>
+    <t>Gemmill</t>
+  </si>
+  <si>
+    <t>Clemson U.</t>
+  </si>
+  <si>
+    <t>Gentile</t>
+  </si>
+  <si>
+    <t>Harms</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Hemmert</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Kimpe</t>
+  </si>
+  <si>
+    <t>Kroeger</t>
+  </si>
+  <si>
+    <t>Laros III</t>
+  </si>
+  <si>
+    <t>Leung</t>
+  </si>
+  <si>
+    <t>Levenhagen</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Pedretti</t>
+  </si>
+  <si>
+    <t>D. R.</t>
+  </si>
+  <si>
+    <t>Resnick</t>
+  </si>
+  <si>
+    <t>Ricci</t>
+  </si>
+  <si>
+    <t>U. of Utah</t>
+  </si>
+  <si>
+    <t>Rodrigues</t>
+  </si>
+  <si>
+    <t>Skjellum</t>
+  </si>
+  <si>
+    <t>Auburn U.</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Data Direct Networks</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Van Dyke</t>
+  </si>
+  <si>
+    <t>Vaughan</t>
+  </si>
+  <si>
+    <t>Micron Technologies</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1370,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1277,9 +1398,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1582,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D89" sqref="A89:XFD89"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H278" sqref="H278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5063,6 +5188,490 @@
         <v>351</v>
       </c>
     </row>
+    <row r="308" spans="1:3" ht="15">
+      <c r="A308" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15">
+      <c r="A309" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15">
+      <c r="A310" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15">
+      <c r="A311" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15">
+      <c r="A312" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15">
+      <c r="A313" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>388</v>
+      </c>
+      <c r="B314" t="s">
+        <v>36</v>
+      </c>
+      <c r="C314" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>224</v>
+      </c>
+      <c r="B315" t="s">
+        <v>166</v>
+      </c>
+      <c r="C315" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>389</v>
+      </c>
+      <c r="B316" t="s">
+        <v>103</v>
+      </c>
+      <c r="C316" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>390</v>
+      </c>
+      <c r="B317" t="s">
+        <v>103</v>
+      </c>
+      <c r="C317" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>391</v>
+      </c>
+      <c r="B318" t="s">
+        <v>21</v>
+      </c>
+      <c r="C318" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>392</v>
+      </c>
+      <c r="B319" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>394</v>
+      </c>
+      <c r="B320" t="s">
+        <v>24</v>
+      </c>
+      <c r="C320" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>395</v>
+      </c>
+      <c r="B321" t="s">
+        <v>21</v>
+      </c>
+      <c r="C321" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>396</v>
+      </c>
+      <c r="B322" t="s">
+        <v>20</v>
+      </c>
+      <c r="C322" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>397</v>
+      </c>
+      <c r="B323" t="s">
+        <v>28</v>
+      </c>
+      <c r="C323" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>398</v>
+      </c>
+      <c r="B324" t="s">
+        <v>28</v>
+      </c>
+      <c r="C324" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>399</v>
+      </c>
+      <c r="B325" t="s">
+        <v>87</v>
+      </c>
+      <c r="C325" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>223</v>
+      </c>
+      <c r="B326" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>400</v>
+      </c>
+      <c r="B327" t="s">
+        <v>101</v>
+      </c>
+      <c r="C327" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>401</v>
+      </c>
+      <c r="B328" t="s">
+        <v>20</v>
+      </c>
+      <c r="C328" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>402</v>
+      </c>
+      <c r="B329" t="s">
+        <v>37</v>
+      </c>
+      <c r="C329" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>403</v>
+      </c>
+      <c r="B330" t="s">
+        <v>22</v>
+      </c>
+      <c r="C330" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>53</v>
+      </c>
+      <c r="B331" t="s">
+        <v>166</v>
+      </c>
+      <c r="C331" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>404</v>
+      </c>
+      <c r="B332" t="s">
+        <v>87</v>
+      </c>
+      <c r="C332" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>370</v>
+      </c>
+      <c r="B333" t="s">
+        <v>26</v>
+      </c>
+      <c r="C333" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>405</v>
+      </c>
+      <c r="B334" t="s">
+        <v>29</v>
+      </c>
+      <c r="C334" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>80</v>
+      </c>
+      <c r="B335" t="s">
+        <v>21</v>
+      </c>
+      <c r="C335" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>54</v>
+      </c>
+      <c r="B336" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>406</v>
+      </c>
+      <c r="B337" t="s">
+        <v>21</v>
+      </c>
+      <c r="C337" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>408</v>
+      </c>
+      <c r="B338" t="s">
+        <v>407</v>
+      </c>
+      <c r="C338" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>409</v>
+      </c>
+      <c r="B339" t="s">
+        <v>31</v>
+      </c>
+      <c r="C339" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>411</v>
+      </c>
+      <c r="B340" t="s">
+        <v>24</v>
+      </c>
+      <c r="C340" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>280</v>
+      </c>
+      <c r="B341" t="s">
+        <v>31</v>
+      </c>
+      <c r="C341" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>82</v>
+      </c>
+      <c r="B342" t="s">
+        <v>38</v>
+      </c>
+      <c r="C342" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>412</v>
+      </c>
+      <c r="B343" t="s">
+        <v>24</v>
+      </c>
+      <c r="C343" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>414</v>
+      </c>
+      <c r="B344" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>414</v>
+      </c>
+      <c r="B345" t="s">
+        <v>33</v>
+      </c>
+      <c r="C345" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>416</v>
+      </c>
+      <c r="B346" t="s">
+        <v>87</v>
+      </c>
+      <c r="C346" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>417</v>
+      </c>
+      <c r="B347" t="s">
+        <v>101</v>
+      </c>
+      <c r="C347" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>418</v>
+      </c>
+      <c r="B348" t="s">
+        <v>20</v>
+      </c>
+      <c r="C348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>419</v>
+      </c>
+      <c r="B349" t="s">
+        <v>26</v>
+      </c>
+      <c r="C349" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>221</v>
+      </c>
+      <c r="B350" t="s">
+        <v>154</v>
+      </c>
+      <c r="C350" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>289</v>
+      </c>
+      <c r="B351" t="s">
+        <v>21</v>
+      </c>
+      <c r="C351" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C63">
     <sortCondition ref="A2:A63"/>

--- a/LOI/COI/COI-all.xlsx
+++ b/LOI/COI/COI-all.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="424">
   <si>
     <t xml:space="preserve"> UCSD</t>
   </si>
@@ -1285,6 +1285,15 @@
   </si>
   <si>
     <t>Micron Technologies</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>Lange</t>
+  </si>
+  <si>
+    <t>Univeristy of Pittsburgh</t>
   </si>
 </sst>
 </file>
@@ -1707,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K351"/>
+  <dimension ref="A1:K353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H278" sqref="H278"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5672,6 +5681,28 @@
         <v>420</v>
       </c>
     </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>421</v>
+      </c>
+      <c r="B352" t="s">
+        <v>22</v>
+      </c>
+      <c r="C352" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>422</v>
+      </c>
+      <c r="B353" t="s">
+        <v>20</v>
+      </c>
+      <c r="C353" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C63">
     <sortCondition ref="A2:A63"/>

--- a/LOI/COI/COI-all.xlsx
+++ b/LOI/COI/COI-all.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="1740" yWindow="-21580" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Carlos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="coi_maltzahn" localSheetId="1">Carlos!$A$1:$D$55</definedName>
+    <definedName name="coi_maltzahn" localSheetId="0">Sheet1!$A$354:$D$408</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">Sheet1!$A$2</definedName>
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
@@ -21,8 +24,33 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="coi_maltzahn.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:carlosmalt:git:ssio-proposal:LOI:COI:coi_maltzahn.txt" tab="0" semicolon="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="coi_maltzahn.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:carlosmalt:git:ssio-proposal:LOI:COI:coi_maltzahn.txt" tab="0" semicolon="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="505">
   <si>
     <t xml:space="preserve"> UCSD</t>
   </si>
@@ -1294,6 +1322,249 @@
   </si>
   <si>
     <t>Univeristy of Pittsburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Achlioptas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> co-author</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ames</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arpaci-Dusseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bhagwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yahoo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brandt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Context Relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carns</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rensselaer Polytechnic Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Curry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dayal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gibson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gokhale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grandison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proficiency Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grider</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grunwald</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> advisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hjelm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collaborator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ioannidou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TidalScale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ionkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jhala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nagoya University</t>
+  </si>
+  <si>
+    <t>Q.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Koziol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDF Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kroeger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Levin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lofstead</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> affiliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manzanares</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HGST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mateas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> McCormick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mohror</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moody</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nassi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obraczka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oldfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Polyzotis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud Helix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ross</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shewmaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shipman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skourtis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VMWare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Illinois Institute of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Linden Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whitehead</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Widener</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wolpert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Woodring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LANL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UW Madison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CMU</t>
   </si>
 </sst>
 </file>
@@ -1379,8 +1650,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1407,13 +1682,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1427,6 +1706,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coi_maltzahn" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coi_maltzahn" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1716,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K353"/>
+  <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A354" sqref="A354"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5692,7 +5979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>422</v>
       </c>
@@ -5701,6 +5988,776 @@
       </c>
       <c r="C353" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>424</v>
+      </c>
+      <c r="B354" t="s">
+        <v>87</v>
+      </c>
+      <c r="C354" t="s">
+        <v>499</v>
+      </c>
+      <c r="D354" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>426</v>
+      </c>
+      <c r="B355" t="s">
+        <v>28</v>
+      </c>
+      <c r="C355" t="s">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>427</v>
+      </c>
+      <c r="B356" t="s">
+        <v>24</v>
+      </c>
+      <c r="C356" t="s">
+        <v>503</v>
+      </c>
+      <c r="D356" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>427</v>
+      </c>
+      <c r="B357" t="s">
+        <v>31</v>
+      </c>
+      <c r="C357" t="s">
+        <v>503</v>
+      </c>
+      <c r="D357" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>428</v>
+      </c>
+      <c r="B358" t="s">
+        <v>20</v>
+      </c>
+      <c r="C358" t="s">
+        <v>429</v>
+      </c>
+      <c r="D358" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>430</v>
+      </c>
+      <c r="B359" t="s">
+        <v>37</v>
+      </c>
+      <c r="C359" t="s">
+        <v>431</v>
+      </c>
+      <c r="D359" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>432</v>
+      </c>
+      <c r="B360" t="s">
+        <v>28</v>
+      </c>
+      <c r="C360" t="s">
+        <v>499</v>
+      </c>
+      <c r="D360" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>433</v>
+      </c>
+      <c r="B361" t="s">
+        <v>20</v>
+      </c>
+      <c r="C361" t="s">
+        <v>434</v>
+      </c>
+      <c r="D361" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>435</v>
+      </c>
+      <c r="B362" t="s">
+        <v>36</v>
+      </c>
+      <c r="C362" t="s">
+        <v>500</v>
+      </c>
+      <c r="D362" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>436</v>
+      </c>
+      <c r="B363" t="s">
+        <v>26</v>
+      </c>
+      <c r="C363" t="s">
+        <v>437</v>
+      </c>
+      <c r="D363" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>438</v>
+      </c>
+      <c r="B364" t="s">
+        <v>20</v>
+      </c>
+      <c r="C364" t="s">
+        <v>439</v>
+      </c>
+      <c r="D364" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>440</v>
+      </c>
+      <c r="B365" t="s">
+        <v>22</v>
+      </c>
+      <c r="C365" t="s">
+        <v>501</v>
+      </c>
+      <c r="D365" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>441</v>
+      </c>
+      <c r="B366" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366" t="s">
+        <v>12</v>
+      </c>
+      <c r="D366" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>442</v>
+      </c>
+      <c r="B367" t="s">
+        <v>166</v>
+      </c>
+      <c r="C367" t="s">
+        <v>504</v>
+      </c>
+      <c r="D367" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>443</v>
+      </c>
+      <c r="B368" t="s">
+        <v>22</v>
+      </c>
+      <c r="C368" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>444</v>
+      </c>
+      <c r="B369" t="s">
+        <v>101</v>
+      </c>
+      <c r="C369" t="s">
+        <v>445</v>
+      </c>
+      <c r="D369" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>446</v>
+      </c>
+      <c r="B370" t="s">
+        <v>166</v>
+      </c>
+      <c r="C370" t="s">
+        <v>502</v>
+      </c>
+      <c r="D370" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>447</v>
+      </c>
+      <c r="B371" t="s">
+        <v>87</v>
+      </c>
+      <c r="C371" t="s">
+        <v>499</v>
+      </c>
+      <c r="D371" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>449</v>
+      </c>
+      <c r="B372" t="s">
+        <v>20</v>
+      </c>
+      <c r="C372" t="s">
+        <v>503</v>
+      </c>
+      <c r="D372" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>450</v>
+      </c>
+      <c r="B373" t="s">
+        <v>103</v>
+      </c>
+      <c r="C373" t="s">
+        <v>502</v>
+      </c>
+      <c r="D373" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>452</v>
+      </c>
+      <c r="B374" t="s">
+        <v>21</v>
+      </c>
+      <c r="C374" t="s">
+        <v>453</v>
+      </c>
+      <c r="D374" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>454</v>
+      </c>
+      <c r="B375" t="s">
+        <v>154</v>
+      </c>
+      <c r="C375" t="s">
+        <v>502</v>
+      </c>
+      <c r="D375" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>455</v>
+      </c>
+      <c r="B376" t="s">
+        <v>24</v>
+      </c>
+      <c r="C376" t="s">
+        <v>499</v>
+      </c>
+      <c r="D376" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>456</v>
+      </c>
+      <c r="B377" t="s">
+        <v>28</v>
+      </c>
+      <c r="C377" t="s">
+        <v>457</v>
+      </c>
+      <c r="D377" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>459</v>
+      </c>
+      <c r="B378" t="s">
+        <v>458</v>
+      </c>
+      <c r="C378" t="s">
+        <v>460</v>
+      </c>
+      <c r="D378" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>461</v>
+      </c>
+      <c r="B379" t="s">
+        <v>101</v>
+      </c>
+      <c r="C379" t="s">
+        <v>501</v>
+      </c>
+      <c r="D379" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>462</v>
+      </c>
+      <c r="B380" t="s">
+        <v>22</v>
+      </c>
+      <c r="C380" t="s">
+        <v>502</v>
+      </c>
+      <c r="D380" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>463</v>
+      </c>
+      <c r="B381" t="s">
+        <v>166</v>
+      </c>
+      <c r="C381" t="s">
+        <v>464</v>
+      </c>
+      <c r="D381" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>465</v>
+      </c>
+      <c r="B382" t="s">
+        <v>103</v>
+      </c>
+      <c r="C382" t="s">
+        <v>500</v>
+      </c>
+      <c r="D382" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>466</v>
+      </c>
+      <c r="B383" t="s">
+        <v>20</v>
+      </c>
+      <c r="C383" t="s">
+        <v>501</v>
+      </c>
+      <c r="D383" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>467</v>
+      </c>
+      <c r="B384" t="s">
+        <v>87</v>
+      </c>
+      <c r="C384" t="s">
+        <v>499</v>
+      </c>
+      <c r="D384" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>469</v>
+      </c>
+      <c r="B385" t="s">
+        <v>24</v>
+      </c>
+      <c r="C385" t="s">
+        <v>470</v>
+      </c>
+      <c r="D385" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>471</v>
+      </c>
+      <c r="B386" t="s">
+        <v>22</v>
+      </c>
+      <c r="C386" t="s">
+        <v>499</v>
+      </c>
+      <c r="D386" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>472</v>
+      </c>
+      <c r="B387" t="s">
+        <v>36</v>
+      </c>
+      <c r="C387" t="s">
+        <v>502</v>
+      </c>
+      <c r="D387" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>473</v>
+      </c>
+      <c r="B388" t="s">
+        <v>29</v>
+      </c>
+      <c r="C388" t="s">
+        <v>499</v>
+      </c>
+      <c r="D388" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>474</v>
+      </c>
+      <c r="B389" t="s">
+        <v>21</v>
+      </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>475</v>
+      </c>
+      <c r="B390" t="s">
+        <v>24</v>
+      </c>
+      <c r="C390" t="s">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>476</v>
+      </c>
+      <c r="B391" t="s">
+        <v>35</v>
+      </c>
+      <c r="C391" t="s">
+        <v>453</v>
+      </c>
+      <c r="D391" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>477</v>
+      </c>
+      <c r="B392" t="s">
+        <v>21</v>
+      </c>
+      <c r="C392" t="s">
+        <v>499</v>
+      </c>
+      <c r="D392" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>478</v>
+      </c>
+      <c r="B393" t="s">
+        <v>31</v>
+      </c>
+      <c r="C393" t="s">
+        <v>501</v>
+      </c>
+      <c r="D393" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>479</v>
+      </c>
+      <c r="B394" t="s">
+        <v>103</v>
+      </c>
+      <c r="C394" t="s">
+        <v>464</v>
+      </c>
+      <c r="D394" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>480</v>
+      </c>
+      <c r="B395" t="s">
+        <v>35</v>
+      </c>
+      <c r="C395" t="s">
+        <v>481</v>
+      </c>
+      <c r="D395" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>482</v>
+      </c>
+      <c r="B396" t="s">
+        <v>31</v>
+      </c>
+      <c r="C396" t="s">
+        <v>500</v>
+      </c>
+      <c r="D396" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>483</v>
+      </c>
+      <c r="B397" t="s">
+        <v>24</v>
+      </c>
+      <c r="C397" t="s">
+        <v>502</v>
+      </c>
+      <c r="D397" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>484</v>
+      </c>
+      <c r="B398" t="s">
+        <v>166</v>
+      </c>
+      <c r="C398" t="s">
+        <v>502</v>
+      </c>
+      <c r="D398" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>485</v>
+      </c>
+      <c r="B399" t="s">
+        <v>87</v>
+      </c>
+      <c r="C399" t="s">
+        <v>486</v>
+      </c>
+      <c r="D399" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>487</v>
+      </c>
+      <c r="B400" t="s">
+        <v>134</v>
+      </c>
+      <c r="C400" t="s">
+        <v>488</v>
+      </c>
+      <c r="D400" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>489</v>
+      </c>
+      <c r="B401" t="s">
+        <v>23</v>
+      </c>
+      <c r="C401" t="s">
+        <v>499</v>
+      </c>
+      <c r="D401" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>490</v>
+      </c>
+      <c r="B402" t="s">
+        <v>24</v>
+      </c>
+      <c r="C402" t="s">
+        <v>491</v>
+      </c>
+      <c r="D402" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>492</v>
+      </c>
+      <c r="B403" t="s">
+        <v>154</v>
+      </c>
+      <c r="C403" t="s">
+        <v>501</v>
+      </c>
+      <c r="D403" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>493</v>
+      </c>
+      <c r="B404" t="s">
+        <v>28</v>
+      </c>
+      <c r="C404" t="s">
+        <v>494</v>
+      </c>
+      <c r="D404" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>495</v>
+      </c>
+      <c r="B405" t="s">
+        <v>20</v>
+      </c>
+      <c r="C405" t="s">
+        <v>499</v>
+      </c>
+      <c r="D405" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>496</v>
+      </c>
+      <c r="B406" t="s">
+        <v>36</v>
+      </c>
+      <c r="C406" t="s">
+        <v>501</v>
+      </c>
+      <c r="D406" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>497</v>
+      </c>
+      <c r="B407" t="s">
+        <v>87</v>
+      </c>
+      <c r="C407" t="s">
+        <v>502</v>
+      </c>
+      <c r="D407" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>498</v>
+      </c>
+      <c r="B408" t="s">
+        <v>20</v>
+      </c>
+      <c r="C408" t="s">
+        <v>502</v>
+      </c>
+      <c r="D408" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5715,4 +6772,800 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D19" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>450</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>452</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>455</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>501</v>
+      </c>
+      <c r="D26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>463</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>500</v>
+      </c>
+      <c r="D29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>501</v>
+      </c>
+      <c r="D30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>470</v>
+      </c>
+      <c r="D32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>471</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>472</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>473</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>474</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>475</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>476</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>477</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>478</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>501</v>
+      </c>
+      <c r="D40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>480</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>481</v>
+      </c>
+      <c r="D42" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>500</v>
+      </c>
+      <c r="D43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>483</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>502</v>
+      </c>
+      <c r="D45" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>485</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>486</v>
+      </c>
+      <c r="D46" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>487</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>488</v>
+      </c>
+      <c r="D47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>489</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>499</v>
+      </c>
+      <c r="D48" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>490</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>491</v>
+      </c>
+      <c r="D49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>492</v>
+      </c>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>501</v>
+      </c>
+      <c r="D50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>493</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>494</v>
+      </c>
+      <c r="D51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>495</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
+      <c r="D52" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>501</v>
+      </c>
+      <c r="D53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>497</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>498</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>502</v>
+      </c>
+      <c r="D55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/LOI/COI/COI-all.xlsx
+++ b/LOI/COI/COI-all.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25915"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-21580" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="coi_maltzahn.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:carlosmalt:git:ssio-proposal:LOI:COI:coi_maltzahn.txt" tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:carlosmalt:git:ssio-proposal:LOI:COI:coi_maltzahn.txt" tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -37,7 +37,7 @@
     </textPr>
   </connection>
   <connection id="2" name="coi_maltzahn.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:carlosmalt:git:ssio-proposal:LOI:COI:coi_maltzahn.txt" tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:carlosmalt:git:ssio-proposal:LOI:COI:coi_maltzahn.txt" tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="507">
   <si>
     <t xml:space="preserve"> UCSD</t>
   </si>
@@ -1565,6 +1565,12 @@
   </si>
   <si>
     <t xml:space="preserve"> CMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> co-author, collaborator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> co-author, collaborator, advisor</t>
   </si>
 </sst>
 </file>
@@ -2005,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A354" sqref="A354:D408"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F344" sqref="F344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5451,7 +5457,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15">
+    <row r="305" spans="1:4" ht="15">
       <c r="A305" s="6" t="s">
         <v>347</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15">
+    <row r="306" spans="1:4" ht="15">
       <c r="A306" s="6" t="s">
         <v>349</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15">
+    <row r="307" spans="1:4" ht="15">
       <c r="A307" s="6" t="s">
         <v>350</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15">
+    <row r="308" spans="1:4" ht="15">
       <c r="A308" s="6" t="s">
         <v>352</v>
       </c>
@@ -5494,8 +5500,11 @@
       <c r="C308" s="6" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="15">
+      <c r="D308" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15">
       <c r="A309" s="6" t="s">
         <v>382</v>
       </c>
@@ -5505,8 +5514,11 @@
       <c r="C309" s="6" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="15">
+      <c r="D309" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15">
       <c r="A310" s="6" t="s">
         <v>384</v>
       </c>
@@ -5516,8 +5528,11 @@
       <c r="C310" s="6" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="15">
+      <c r="D310" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15">
       <c r="A311" s="6" t="s">
         <v>384</v>
       </c>
@@ -5527,8 +5542,11 @@
       <c r="C311" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="15">
+      <c r="D311" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15">
       <c r="A312" s="6" t="s">
         <v>386</v>
       </c>
@@ -5538,8 +5556,11 @@
       <c r="C312" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" ht="15">
+      <c r="D312" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15">
       <c r="A313" s="6" t="s">
         <v>65</v>
       </c>
@@ -5549,8 +5570,11 @@
       <c r="C313" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="D313" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>388</v>
       </c>
@@ -5560,8 +5584,11 @@
       <c r="C314" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="D314" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>224</v>
       </c>
@@ -5571,8 +5598,11 @@
       <c r="C315" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="D315" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>389</v>
       </c>
@@ -5582,8 +5612,11 @@
       <c r="C316" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="D316" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>390</v>
       </c>
@@ -5593,8 +5626,11 @@
       <c r="C317" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="D317" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>391</v>
       </c>
@@ -5604,8 +5640,11 @@
       <c r="C318" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
+      <c r="D318" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>392</v>
       </c>
@@ -5615,8 +5654,11 @@
       <c r="C319" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="320" spans="1:3">
+      <c r="D319" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>394</v>
       </c>
@@ -5626,8 +5668,11 @@
       <c r="C320" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="D320" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>395</v>
       </c>
@@ -5637,8 +5682,11 @@
       <c r="C321" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="D321" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>396</v>
       </c>
@@ -5648,8 +5696,11 @@
       <c r="C322" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="D322" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>397</v>
       </c>
@@ -5659,8 +5710,11 @@
       <c r="C323" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="D323" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>398</v>
       </c>
@@ -5670,8 +5724,11 @@
       <c r="C324" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="D324" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>399</v>
       </c>
@@ -5681,8 +5738,11 @@
       <c r="C325" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="D325" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>223</v>
       </c>
@@ -5692,8 +5752,11 @@
       <c r="C326" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="D326" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>400</v>
       </c>
@@ -5703,8 +5766,11 @@
       <c r="C327" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="D327" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>401</v>
       </c>
@@ -5714,8 +5780,11 @@
       <c r="C328" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="D328" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>402</v>
       </c>
@@ -5725,8 +5794,11 @@
       <c r="C329" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="D329" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>403</v>
       </c>
@@ -5736,8 +5808,11 @@
       <c r="C330" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="D330" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>53</v>
       </c>
@@ -5747,8 +5822,11 @@
       <c r="C331" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="D331" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>404</v>
       </c>
@@ -5758,8 +5836,11 @@
       <c r="C332" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="D332" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>370</v>
       </c>
@@ -5769,8 +5850,11 @@
       <c r="C333" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="D333" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>405</v>
       </c>
@@ -5780,8 +5864,11 @@
       <c r="C334" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="D334" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>80</v>
       </c>
@@ -5791,8 +5878,11 @@
       <c r="C335" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="D335" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>54</v>
       </c>
@@ -5802,8 +5892,11 @@
       <c r="C336" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="D336" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>406</v>
       </c>
@@ -5813,8 +5906,11 @@
       <c r="C337" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="D337" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>408</v>
       </c>
@@ -5824,8 +5920,11 @@
       <c r="C338" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="D338" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -5835,8 +5934,11 @@
       <c r="C339" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="D339" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>411</v>
       </c>
@@ -5846,8 +5948,11 @@
       <c r="C340" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
+      <c r="D340" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>280</v>
       </c>
@@ -5857,8 +5962,11 @@
       <c r="C341" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="342" spans="1:3">
+      <c r="D341" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>82</v>
       </c>
@@ -5868,8 +5976,11 @@
       <c r="C342" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="D342" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>412</v>
       </c>
@@ -5879,8 +5990,11 @@
       <c r="C343" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="344" spans="1:3">
+      <c r="D343" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>414</v>
       </c>
@@ -5890,8 +6004,11 @@
       <c r="C344" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="345" spans="1:3">
+      <c r="D344" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>414</v>
       </c>
@@ -5901,8 +6018,11 @@
       <c r="C345" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="346" spans="1:3">
+      <c r="D345" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>416</v>
       </c>
@@ -5912,8 +6032,11 @@
       <c r="C346" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="D346" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>417</v>
       </c>
@@ -5923,8 +6046,11 @@
       <c r="C347" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="348" spans="1:3">
+      <c r="D347" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>418</v>
       </c>
@@ -5934,8 +6060,11 @@
       <c r="C348" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="349" spans="1:3">
+      <c r="D348" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>419</v>
       </c>
@@ -5945,8 +6074,11 @@
       <c r="C349" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="D349" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>221</v>
       </c>
@@ -5956,8 +6088,11 @@
       <c r="C350" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="D350" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>289</v>
       </c>
@@ -5967,8 +6102,11 @@
       <c r="C351" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="352" spans="1:3">
+      <c r="D351" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>421</v>
       </c>
